--- a/word_list.xlsx
+++ b/word_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berke\Desktop\Software\word-test-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF951BA8-A53B-456D-B7E5-2B60DE4CAE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF4780C-7793-40DD-A743-A28964B270DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
   <si>
     <t>E</t>
   </si>
@@ -458,6 +458,12 @@
   </si>
   <si>
     <t xml:space="preserve">opponet </t>
+  </si>
+  <si>
+    <t>sieze the day</t>
+  </si>
+  <si>
+    <t>günü yakala</t>
   </si>
 </sst>
 </file>
@@ -823,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,6 +1846,26 @@
       <c r="B72" t="s">
         <v>117</v>
       </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/word_list.xlsx
+++ b/word_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berke\Desktop\Software\word-test-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF4780C-7793-40DD-A743-A28964B270DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6E1480-D6A4-4E84-8EBC-838AA56847E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
   <si>
     <t>E</t>
   </si>
@@ -464,6 +464,24 @@
   </si>
   <si>
     <t>günü yakala</t>
+  </si>
+  <si>
+    <t>wheels</t>
+  </si>
+  <si>
+    <t>tekerlek</t>
+  </si>
+  <si>
+    <t>pronounce</t>
+  </si>
+  <si>
+    <t>telafuz etmek</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>yuvarlak</t>
   </si>
 </sst>
 </file>
@@ -829,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,6 +1885,48 @@
         <v>3</v>
       </c>
     </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/word_list.xlsx
+++ b/word_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berke\Desktop\Software\word-test-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6E1480-D6A4-4E84-8EBC-838AA56847E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0749449D-02A8-439C-8068-4F7E2AB27F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3345" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="182">
   <si>
     <t>E</t>
   </si>
@@ -482,6 +482,90 @@
   </si>
   <si>
     <t>yuvarlak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fridge </t>
+  </si>
+  <si>
+    <t>buzdolabı</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>tereyağ</t>
+  </si>
+  <si>
+    <t>raisins</t>
+  </si>
+  <si>
+    <t>kuş üzümü</t>
+  </si>
+  <si>
+    <t>hairbrush</t>
+  </si>
+  <si>
+    <t>saç fırçası</t>
+  </si>
+  <si>
+    <t>backpack</t>
+  </si>
+  <si>
+    <t>sırt çantası</t>
+  </si>
+  <si>
+    <t>shelf</t>
+  </si>
+  <si>
+    <t>raf</t>
+  </si>
+  <si>
+    <t>examines</t>
+  </si>
+  <si>
+    <t>incelemek</t>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>hasta</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>fiyat</t>
+  </si>
+  <si>
+    <t>accıdent</t>
+  </si>
+  <si>
+    <t>kaza</t>
+  </si>
+  <si>
+    <t>pearly</t>
+  </si>
+  <si>
+    <t>inci</t>
+  </si>
+  <si>
+    <t>earing</t>
+  </si>
+  <si>
+    <t>küpe</t>
+  </si>
+  <si>
+    <t>town</t>
+  </si>
+  <si>
+    <t>kasaba</t>
+  </si>
+  <si>
+    <t>busy</t>
+  </si>
+  <si>
+    <t>meşgul,yoğun</t>
   </si>
 </sst>
 </file>
@@ -847,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74:D76"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,6 +2011,202 @@
         <v>3</v>
       </c>
     </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
